--- a/Desarrollo/SGE/Gestión/SGE-PP.xlsx
+++ b/Desarrollo/SGE/Gestión/SGE-PP.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\hoppe\Documents\GitHub\HuayroTech\Desarrollo\SGE\Gestión\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FE2C83-E4BB-44BF-9608-C94FA8140AB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860AA3DD-A487-4516-9977-1C349100C174}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{89B2F0DA-AE1E-48F6-ADED-7F0AF4040F18}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{89B2F0DA-AE1E-48F6-ADED-7F0AF4040F18}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Gantt-PP" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="57">
   <si>
     <t>Lu</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Presentación del Gantt</t>
   </si>
   <si>
-    <t>LW</t>
-  </si>
-  <si>
     <t>Aprobación Planeamiento</t>
   </si>
   <si>
@@ -202,6 +199,9 @@
   </si>
   <si>
     <t>Entrega final</t>
+  </si>
+  <si>
+    <t>Sistema de gestión de eventos</t>
   </si>
 </sst>
 </file>
@@ -248,7 +248,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,12 +288,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF808080"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,7 +403,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -726,10 +720,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{743D37A3-97B0-4F1C-8632-63A3458D9290}">
-  <dimension ref="A1:BW52"/>
+  <dimension ref="A1:CF53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="BO27" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="CF45" sqref="CF45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,10 +734,10 @@
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="73.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="75" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="84" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -956,8 +953,35 @@
       <c r="BW1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:75" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BX1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>2</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>4</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:84" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -1244,106 +1268,151 @@
         <f t="shared" si="1"/>
         <v>43800</v>
       </c>
-    </row>
-    <row r="3" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="BX2" s="8">
+        <f t="shared" ref="BX2" si="2">+BW2+1</f>
+        <v>43801</v>
+      </c>
+      <c r="BY2" s="8">
+        <f t="shared" ref="BY2" si="3">+BX2+1</f>
+        <v>43802</v>
+      </c>
+      <c r="BZ2" s="8">
+        <f t="shared" ref="BZ2" si="4">+BY2+1</f>
+        <v>43803</v>
+      </c>
+      <c r="CA2" s="8">
+        <f t="shared" ref="CA2" si="5">+BZ2+1</f>
+        <v>43804</v>
+      </c>
+      <c r="CB2" s="8">
+        <f t="shared" ref="CB2" si="6">+CA2+1</f>
+        <v>43805</v>
+      </c>
+      <c r="CC2" s="8">
+        <f t="shared" ref="CC2:CD2" si="7">+CB2+1</f>
+        <v>43806</v>
+      </c>
+      <c r="CD2" s="9">
+        <f t="shared" si="7"/>
+        <v>43807</v>
+      </c>
+      <c r="CE2" s="8">
+        <f t="shared" ref="CE2" si="8">+CD2+1</f>
+        <v>43808</v>
+      </c>
+      <c r="CF2" s="8">
+        <f t="shared" ref="CF2" si="9">+CE2+1</f>
+        <v>43809</v>
+      </c>
+    </row>
+    <row r="3" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>
       <c r="D3" s="13"/>
-      <c r="E3" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="E3" s="14"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="11"/>
-      <c r="AH3" s="11"/>
-      <c r="AI3" s="11"/>
-      <c r="AJ3" s="11"/>
-      <c r="AK3" s="11"/>
-      <c r="AL3" s="11"/>
-      <c r="AM3" s="11"/>
-      <c r="AN3" s="11"/>
-      <c r="AO3" s="11"/>
-      <c r="AP3" s="11"/>
-      <c r="AQ3" s="11"/>
-      <c r="AR3" s="11"/>
-      <c r="AS3" s="11"/>
-      <c r="AT3" s="11"/>
-      <c r="AU3" s="11"/>
-      <c r="AV3" s="11"/>
-      <c r="AW3" s="11"/>
-      <c r="AX3" s="11"/>
-      <c r="AY3" s="11"/>
-      <c r="AZ3" s="11"/>
-      <c r="BA3" s="11"/>
-      <c r="BB3" s="11"/>
-      <c r="BC3" s="11"/>
-      <c r="BD3" s="11"/>
-      <c r="BE3" s="11"/>
-      <c r="BF3" s="11"/>
-      <c r="BG3" s="11"/>
-      <c r="BH3" s="11"/>
-      <c r="BI3" s="11"/>
-      <c r="BJ3" s="11"/>
-      <c r="BK3" s="11"/>
-      <c r="BL3" s="11"/>
-      <c r="BM3" s="11"/>
-      <c r="BN3" s="11"/>
-      <c r="BO3" s="11"/>
-      <c r="BP3" s="11"/>
-      <c r="BQ3" s="11"/>
-      <c r="BR3" s="11"/>
-      <c r="BS3" s="11"/>
-      <c r="BT3" s="11"/>
-      <c r="BU3" s="11"/>
-      <c r="BV3" s="11"/>
-      <c r="BW3" s="11"/>
-    </row>
-    <row r="4" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11" t="s">
-        <v>35</v>
-      </c>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="15"/>
+      <c r="AO3" s="15"/>
+      <c r="AP3" s="15"/>
+      <c r="AQ3" s="15"/>
+      <c r="AR3" s="15"/>
+      <c r="AS3" s="15"/>
+      <c r="AT3" s="15"/>
+      <c r="AU3" s="15"/>
+      <c r="AV3" s="15"/>
+      <c r="AW3" s="15"/>
+      <c r="AX3" s="15"/>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="15"/>
+      <c r="BA3" s="15"/>
+      <c r="BB3" s="15"/>
+      <c r="BC3" s="15"/>
+      <c r="BD3" s="15"/>
+      <c r="BE3" s="15"/>
+      <c r="BF3" s="15"/>
+      <c r="BG3" s="15"/>
+      <c r="BH3" s="15"/>
+      <c r="BI3" s="15"/>
+      <c r="BJ3" s="15"/>
+      <c r="BK3" s="15"/>
+      <c r="BL3" s="15"/>
+      <c r="BM3" s="15"/>
+      <c r="BN3" s="15"/>
+      <c r="BO3" s="15"/>
+      <c r="BP3" s="15"/>
+      <c r="BQ3" s="15"/>
+      <c r="BR3" s="15"/>
+      <c r="BS3" s="15"/>
+      <c r="BT3" s="15"/>
+      <c r="BU3" s="15"/>
+      <c r="BV3" s="15"/>
+      <c r="BW3" s="15"/>
+      <c r="BX3" s="15"/>
+      <c r="BY3" s="15"/>
+      <c r="BZ3" s="15"/>
+      <c r="CA3" s="15"/>
+      <c r="CB3" s="15"/>
+      <c r="CC3" s="15"/>
+      <c r="CD3" s="15"/>
+      <c r="CE3" s="15"/>
+      <c r="CF3" s="15"/>
+    </row>
+    <row r="4" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="11"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
+      <c r="E4" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
@@ -1404,18 +1473,29 @@
       <c r="BU4" s="11"/>
       <c r="BV4" s="11"/>
       <c r="BW4" s="11"/>
-    </row>
-    <row r="5" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="BX4" s="11"/>
+      <c r="BY4" s="11"/>
+      <c r="BZ4" s="11"/>
+      <c r="CA4" s="11"/>
+      <c r="CB4" s="11"/>
+      <c r="CC4" s="11"/>
+      <c r="CD4" s="11"/>
+      <c r="CE4" s="11"/>
+      <c r="CF4" s="11"/>
+    </row>
+    <row r="5" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+      <c r="E5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
@@ -1483,21 +1563,32 @@
       <c r="BU5" s="11"/>
       <c r="BV5" s="11"/>
       <c r="BW5" s="11"/>
-    </row>
-    <row r="6" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="BX5" s="11"/>
+      <c r="BY5" s="11"/>
+      <c r="BZ5" s="11"/>
+      <c r="CA5" s="11"/>
+      <c r="CB5" s="11"/>
+      <c r="CC5" s="11"/>
+      <c r="CD5" s="11"/>
+      <c r="CE5" s="11"/>
+      <c r="CF5" s="11"/>
+    </row>
+    <row r="6" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
+      <c r="E6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
@@ -1562,24 +1653,33 @@
       <c r="BU6" s="11"/>
       <c r="BV6" s="11"/>
       <c r="BW6" s="11"/>
-    </row>
-    <row r="7" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+      <c r="BX6" s="11"/>
+      <c r="BY6" s="11"/>
+      <c r="BZ6" s="11"/>
+      <c r="CA6" s="11"/>
+      <c r="CB6" s="11"/>
+      <c r="CC6" s="11"/>
+      <c r="CD6" s="11"/>
+      <c r="CE6" s="11"/>
+      <c r="CF6" s="11"/>
+    </row>
+    <row r="7" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
       <c r="B7" s="11" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
+      <c r="L7" s="16"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
@@ -1643,26 +1743,35 @@
       <c r="BU7" s="11"/>
       <c r="BV7" s="11"/>
       <c r="BW7" s="11"/>
-    </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="BX7" s="11"/>
+      <c r="BY7" s="11"/>
+      <c r="BZ7" s="11"/>
+      <c r="CA7" s="11"/>
+      <c r="CB7" s="11"/>
+      <c r="CC7" s="11"/>
+      <c r="CD7" s="11"/>
+      <c r="CE7" s="11"/>
+      <c r="CF7" s="11"/>
+    </row>
+    <row r="8" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="17"/>
+      <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
@@ -1724,27 +1833,36 @@
       <c r="BU8" s="11"/>
       <c r="BV8" s="11"/>
       <c r="BW8" s="11"/>
-    </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="BX8" s="11"/>
+      <c r="BY8" s="11"/>
+      <c r="BZ8" s="11"/>
+      <c r="CA8" s="11"/>
+      <c r="CB8" s="11"/>
+      <c r="CC8" s="11"/>
+      <c r="CD8" s="11"/>
+      <c r="CE8" s="11"/>
+      <c r="CF8" s="11"/>
+    </row>
+    <row r="9" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="16"/>
+      <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="17"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
@@ -1805,13 +1923,26 @@
       <c r="BU9" s="11"/>
       <c r="BV9" s="11"/>
       <c r="BW9" s="11"/>
-    </row>
-    <row r="10" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="BX9" s="11"/>
+      <c r="BY9" s="11"/>
+      <c r="BZ9" s="11"/>
+      <c r="CA9" s="11"/>
+      <c r="CB9" s="11"/>
+      <c r="CC9" s="11"/>
+      <c r="CD9" s="11"/>
+      <c r="CE9" s="11"/>
+      <c r="CF9" s="11"/>
+    </row>
+    <row r="10" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="18"/>
+      <c r="B10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -1882,11 +2013,18 @@
       <c r="BU10" s="11"/>
       <c r="BV10" s="11"/>
       <c r="BW10" s="11"/>
-    </row>
-    <row r="11" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>36</v>
-      </c>
+      <c r="BX10" s="11"/>
+      <c r="BY10" s="11"/>
+      <c r="BZ10" s="11"/>
+      <c r="CA10" s="11"/>
+      <c r="CB10" s="11"/>
+      <c r="CC10" s="11"/>
+      <c r="CD10" s="11"/>
+      <c r="CE10" s="11"/>
+      <c r="CF10" s="11"/>
+    </row>
+    <row r="11" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -1902,126 +2040,133 @@
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="21"/>
-      <c r="AA11" s="21"/>
-      <c r="AB11" s="21"/>
-      <c r="AC11" s="21"/>
-      <c r="AD11" s="21"/>
-      <c r="AE11" s="21"/>
-      <c r="AF11" s="21"/>
-      <c r="AG11" s="21"/>
-      <c r="AH11" s="21"/>
-      <c r="AI11" s="21"/>
-      <c r="AJ11" s="17"/>
-      <c r="AK11" s="21"/>
-      <c r="AL11" s="21"/>
-      <c r="AM11" s="21"/>
-      <c r="AN11" s="21"/>
-      <c r="AO11" s="21"/>
-      <c r="AP11" s="21"/>
-      <c r="AQ11" s="21"/>
-      <c r="AR11" s="21"/>
-      <c r="AS11" s="21"/>
-      <c r="AT11" s="21"/>
-      <c r="AU11" s="21"/>
-      <c r="AV11" s="21"/>
-      <c r="AW11" s="21"/>
-      <c r="AX11" s="21"/>
-      <c r="AY11" s="21"/>
-      <c r="AZ11" s="21"/>
-      <c r="BA11" s="17"/>
-      <c r="BB11" s="21"/>
-      <c r="BC11" s="21"/>
-      <c r="BD11" s="21"/>
-      <c r="BE11" s="21"/>
-      <c r="BF11" s="21"/>
-      <c r="BG11" s="21"/>
-      <c r="BH11" s="21"/>
-      <c r="BI11" s="21"/>
-      <c r="BJ11" s="21"/>
-      <c r="BK11" s="21"/>
-      <c r="BL11" s="21"/>
-      <c r="BM11" s="21"/>
-      <c r="BN11" s="21"/>
-      <c r="BO11" s="21"/>
-      <c r="BP11" s="21"/>
-      <c r="BQ11" s="21"/>
-      <c r="BR11" s="21"/>
-      <c r="BS11" s="21"/>
-      <c r="BT11" s="21"/>
-      <c r="BU11" s="21"/>
-      <c r="BV11" s="21"/>
-      <c r="BW11" s="21"/>
-    </row>
-    <row r="12" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11" t="s">
-        <v>13</v>
-      </c>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="11"/>
+      <c r="AL11" s="11"/>
+      <c r="AM11" s="11"/>
+      <c r="AN11" s="11"/>
+      <c r="AO11" s="11"/>
+      <c r="AP11" s="11"/>
+      <c r="AQ11" s="11"/>
+      <c r="AR11" s="11"/>
+      <c r="AS11" s="11"/>
+      <c r="AT11" s="11"/>
+      <c r="AU11" s="11"/>
+      <c r="AV11" s="11"/>
+      <c r="AW11" s="11"/>
+      <c r="AX11" s="11"/>
+      <c r="AY11" s="11"/>
+      <c r="AZ11" s="11"/>
+      <c r="BA11" s="11"/>
+      <c r="BB11" s="11"/>
+      <c r="BC11" s="11"/>
+      <c r="BD11" s="11"/>
+      <c r="BE11" s="11"/>
+      <c r="BF11" s="11"/>
+      <c r="BG11" s="11"/>
+      <c r="BH11" s="11"/>
+      <c r="BI11" s="11"/>
+      <c r="BJ11" s="11"/>
+      <c r="BK11" s="11"/>
+      <c r="BL11" s="11"/>
+      <c r="BM11" s="11"/>
+      <c r="BN11" s="11"/>
+      <c r="BO11" s="11"/>
+      <c r="BP11" s="11"/>
+      <c r="BQ11" s="11"/>
+      <c r="BR11" s="11"/>
+      <c r="BS11" s="11"/>
+      <c r="BT11" s="11"/>
+      <c r="BU11" s="11"/>
+      <c r="BV11" s="11"/>
+      <c r="BW11" s="11"/>
+      <c r="BX11" s="11"/>
+      <c r="BY11" s="11"/>
+      <c r="BZ11" s="11"/>
+      <c r="CA11" s="11"/>
+      <c r="CB11" s="11"/>
+      <c r="CC11" s="11"/>
+      <c r="CD11" s="11"/>
+      <c r="CE11" s="11"/>
+      <c r="CF11" s="11"/>
+    </row>
+    <row r="12" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
-      <c r="E12" s="18" t="s">
-        <v>14</v>
-      </c>
+      <c r="E12" s="18"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="11"/>
-      <c r="AG12" s="11"/>
-      <c r="AH12" s="11"/>
-      <c r="AI12" s="11"/>
-      <c r="AJ12" s="11"/>
-      <c r="AK12" s="11"/>
-      <c r="AL12" s="11"/>
-      <c r="AM12" s="11"/>
-      <c r="AN12" s="11"/>
-      <c r="AO12" s="11"/>
-      <c r="AP12" s="11"/>
-      <c r="AQ12" s="11"/>
-      <c r="AR12" s="11"/>
-      <c r="AS12" s="11"/>
-      <c r="AT12" s="11"/>
-      <c r="AU12" s="11"/>
-      <c r="AV12" s="11"/>
-      <c r="AW12" s="11"/>
-      <c r="AX12" s="11"/>
-      <c r="AY12" s="11"/>
-      <c r="AZ12" s="11"/>
-      <c r="BA12" s="11"/>
-      <c r="BB12" s="11"/>
-      <c r="BC12" s="11"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="20"/>
+      <c r="AH12" s="21"/>
+      <c r="AI12" s="21"/>
+      <c r="AJ12" s="21"/>
+      <c r="AK12" s="21"/>
+      <c r="AL12" s="21"/>
+      <c r="AM12" s="21"/>
+      <c r="AN12" s="21"/>
+      <c r="AO12" s="21"/>
+      <c r="AP12" s="21"/>
+      <c r="AQ12" s="21"/>
+      <c r="AR12" s="21"/>
+      <c r="AS12" s="21"/>
+      <c r="AT12" s="21"/>
+      <c r="AU12" s="21"/>
+      <c r="AV12" s="21"/>
+      <c r="AW12" s="21"/>
+      <c r="AX12" s="21"/>
+      <c r="AY12" s="21"/>
+      <c r="AZ12" s="21"/>
+      <c r="BA12" s="21"/>
+      <c r="BB12" s="21"/>
+      <c r="BC12" s="21"/>
       <c r="BD12" s="11"/>
       <c r="BE12" s="11"/>
       <c r="BF12" s="11"/>
@@ -2042,39 +2187,114 @@
       <c r="BU12" s="11"/>
       <c r="BV12" s="11"/>
       <c r="BW12" s="11"/>
-    </row>
-    <row r="13" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
+      <c r="BX12" s="11"/>
+      <c r="BY12" s="11"/>
+      <c r="BZ12" s="11"/>
+      <c r="CA12" s="11"/>
+      <c r="CB12" s="11"/>
+      <c r="CC12" s="11"/>
+      <c r="CD12" s="11"/>
+      <c r="CE12" s="11"/>
+      <c r="CF12" s="11"/>
+    </row>
+    <row r="13" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="16"/>
+      <c r="AI13" s="16"/>
+      <c r="AJ13" s="16"/>
+      <c r="AK13" s="16"/>
+      <c r="AL13" s="17"/>
+      <c r="AM13" s="11"/>
+      <c r="AN13" s="11"/>
+      <c r="AO13" s="11"/>
+      <c r="AP13" s="11"/>
+      <c r="AQ13" s="11"/>
+      <c r="AR13" s="11"/>
+      <c r="AS13" s="11"/>
+      <c r="AT13" s="11"/>
+      <c r="AU13" s="11"/>
+      <c r="AV13" s="11"/>
+      <c r="AW13" s="11"/>
+      <c r="AX13" s="11"/>
+      <c r="AY13" s="11"/>
+      <c r="AZ13" s="11"/>
+      <c r="BA13" s="11"/>
+      <c r="BB13" s="11"/>
+      <c r="BC13" s="11"/>
+      <c r="BD13" s="11"/>
+      <c r="BE13" s="11"/>
+      <c r="BF13" s="11"/>
+      <c r="BG13" s="11"/>
+      <c r="BH13" s="11"/>
+      <c r="BI13" s="11"/>
+      <c r="BJ13" s="11"/>
+      <c r="BK13" s="11"/>
+      <c r="BL13" s="11"/>
+      <c r="BM13" s="11"/>
+      <c r="BN13" s="11"/>
+      <c r="BO13" s="11"/>
+      <c r="BP13" s="11"/>
+      <c r="BQ13" s="11"/>
+      <c r="BR13" s="11"/>
+      <c r="BS13" s="11"/>
+      <c r="BT13" s="11"/>
+      <c r="BU13" s="11"/>
+      <c r="BV13" s="11"/>
+      <c r="BW13" s="11"/>
+      <c r="BX13" s="11"/>
+      <c r="BY13" s="11"/>
+      <c r="BZ13" s="11"/>
+      <c r="CA13" s="11"/>
+      <c r="CB13" s="11"/>
+      <c r="CC13" s="11"/>
+      <c r="CD13" s="11"/>
+      <c r="CE13" s="11"/>
+      <c r="CF13" s="11"/>
+    </row>
+    <row r="14" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-    </row>
-    <row r="14" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
       <c r="E14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="P14" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
       <c r="S14" s="11"/>
@@ -2092,57 +2312,21 @@
       <c r="AE14" s="11"/>
       <c r="AF14" s="11"/>
       <c r="AG14" s="11"/>
-      <c r="AH14" s="11"/>
-      <c r="AI14" s="11"/>
-      <c r="AJ14" s="11"/>
-      <c r="AK14" s="11"/>
-      <c r="AL14" s="11"/>
-      <c r="AM14" s="11"/>
-      <c r="AN14" s="11"/>
-      <c r="AO14" s="11"/>
-      <c r="AP14" s="11"/>
-      <c r="AQ14" s="11"/>
-      <c r="AR14" s="11"/>
-      <c r="AS14" s="11"/>
-      <c r="AT14" s="11"/>
-      <c r="AU14" s="11"/>
-      <c r="AV14" s="11"/>
-      <c r="AW14" s="11"/>
-      <c r="AX14" s="11"/>
-      <c r="AY14" s="11"/>
-      <c r="AZ14" s="11"/>
-      <c r="BA14" s="11"/>
-      <c r="BB14" s="11"/>
-      <c r="BC14" s="11"/>
-      <c r="BD14" s="11"/>
-      <c r="BE14" s="11"/>
-      <c r="BF14" s="11"/>
-      <c r="BG14" s="11"/>
-      <c r="BH14" s="11"/>
-      <c r="BI14" s="11"/>
-      <c r="BJ14" s="11"/>
-      <c r="BK14" s="11"/>
-      <c r="BL14" s="11"/>
-      <c r="BM14" s="11"/>
-      <c r="BN14" s="11"/>
-      <c r="BO14" s="11"/>
-      <c r="BP14" s="11"/>
-      <c r="BQ14" s="11"/>
-      <c r="BR14" s="11"/>
-      <c r="BS14" s="11"/>
-      <c r="BT14" s="11"/>
-      <c r="BU14" s="11"/>
-      <c r="BV14" s="11"/>
-      <c r="BW14" s="11"/>
-    </row>
-    <row r="15" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="AJ14" s="22"/>
+      <c r="AK14" s="22"/>
+      <c r="AL14" s="22"/>
+      <c r="AM14" s="17"/>
+    </row>
+    <row r="15" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="11" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
-      <c r="E15" s="18"/>
+      <c r="E15" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
@@ -2152,7 +2336,6 @@
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
@@ -2171,13 +2354,12 @@
       <c r="AE15" s="11"/>
       <c r="AF15" s="11"/>
       <c r="AG15" s="11"/>
-      <c r="AH15" s="11"/>
       <c r="AI15" s="11"/>
       <c r="AJ15" s="11"/>
-      <c r="AK15" s="11"/>
-      <c r="AL15" s="11"/>
-      <c r="AM15" s="11"/>
-      <c r="AN15" s="11"/>
+      <c r="AK15" s="16"/>
+      <c r="AL15" s="16"/>
+      <c r="AM15" s="16"/>
+      <c r="AN15" s="17"/>
       <c r="AO15" s="11"/>
       <c r="AP15" s="11"/>
       <c r="AQ15" s="11"/>
@@ -2213,15 +2395,26 @@
       <c r="BU15" s="11"/>
       <c r="BV15" s="11"/>
       <c r="BW15" s="11"/>
-    </row>
-    <row r="16" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="BX15" s="11"/>
+      <c r="BY15" s="11"/>
+      <c r="BZ15" s="11"/>
+      <c r="CA15" s="11"/>
+      <c r="CB15" s="11"/>
+      <c r="CC15" s="11"/>
+      <c r="CD15" s="11"/>
+      <c r="CE15" s="11"/>
+      <c r="CF15" s="11"/>
+    </row>
+    <row r="16" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="18"/>
+      <c r="E16" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
@@ -2255,11 +2448,11 @@
       <c r="AJ16" s="11"/>
       <c r="AK16" s="11"/>
       <c r="AL16" s="11"/>
-      <c r="AM16" s="11"/>
-      <c r="AN16" s="11"/>
-      <c r="AO16" s="11"/>
-      <c r="AP16" s="11"/>
-      <c r="AQ16" s="11"/>
+      <c r="AM16" s="16"/>
+      <c r="AN16" s="16"/>
+      <c r="AO16" s="16"/>
+      <c r="AP16" s="16"/>
+      <c r="AQ16" s="17"/>
       <c r="AR16" s="11"/>
       <c r="AS16" s="11"/>
       <c r="AT16" s="11"/>
@@ -2292,16 +2485,25 @@
       <c r="BU16" s="11"/>
       <c r="BV16" s="11"/>
       <c r="BW16" s="11"/>
-    </row>
-    <row r="17" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="BX16" s="11"/>
+      <c r="BY16" s="11"/>
+      <c r="BZ16" s="11"/>
+      <c r="CA16" s="11"/>
+      <c r="CB16" s="11"/>
+      <c r="CC16" s="11"/>
+      <c r="CD16" s="11"/>
+      <c r="CE16" s="11"/>
+      <c r="CF16" s="11"/>
+    </row>
+    <row r="17" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="11" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
@@ -2314,8 +2516,8 @@
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
       <c r="U17" s="11"/>
@@ -2323,9 +2525,9 @@
       <c r="W17" s="11"/>
       <c r="X17" s="11"/>
       <c r="Y17" s="11"/>
-      <c r="Z17" s="22"/>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="16"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
       <c r="AC17" s="11"/>
       <c r="AD17" s="11"/>
       <c r="AE17" s="11"/>
@@ -2337,10 +2539,10 @@
       <c r="AK17" s="11"/>
       <c r="AL17" s="11"/>
       <c r="AM17" s="11"/>
-      <c r="AN17" s="11"/>
-      <c r="AO17" s="11"/>
-      <c r="AP17" s="11"/>
-      <c r="AQ17" s="11"/>
+      <c r="AN17" s="16"/>
+      <c r="AO17" s="16"/>
+      <c r="AP17" s="16"/>
+      <c r="AQ17" s="17"/>
       <c r="AR17" s="11"/>
       <c r="AS17" s="11"/>
       <c r="AT17" s="11"/>
@@ -2373,16 +2575,25 @@
       <c r="BU17" s="11"/>
       <c r="BV17" s="11"/>
       <c r="BW17" s="11"/>
-    </row>
-    <row r="18" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="BX17" s="11"/>
+      <c r="BY17" s="11"/>
+      <c r="BZ17" s="11"/>
+      <c r="CA17" s="11"/>
+      <c r="CB17" s="11"/>
+      <c r="CC17" s="11"/>
+      <c r="CD17" s="11"/>
+      <c r="CE17" s="11"/>
+      <c r="CF17" s="11"/>
+    </row>
+    <row r="18" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
@@ -2407,11 +2618,24 @@
       <c r="Z18" s="11"/>
       <c r="AA18" s="11"/>
       <c r="AB18" s="11"/>
-      <c r="AC18" s="16"/>
-      <c r="AD18" s="16"/>
-      <c r="AE18" s="16"/>
-      <c r="AF18" s="16"/>
-      <c r="AG18" s="16"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="11"/>
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="11"/>
+      <c r="AI18" s="11"/>
+      <c r="AJ18" s="11"/>
+      <c r="AK18" s="11"/>
+      <c r="AL18" s="11"/>
+      <c r="AM18" s="11"/>
+      <c r="AN18" s="11"/>
+      <c r="AO18" s="11"/>
+      <c r="AP18" s="11"/>
+      <c r="AQ18" s="16"/>
+      <c r="AR18" s="16"/>
+      <c r="AS18" s="16"/>
+      <c r="AT18" s="17"/>
       <c r="AU18" s="11"/>
       <c r="AV18" s="11"/>
       <c r="AW18" s="11"/>
@@ -2441,16 +2665,25 @@
       <c r="BU18" s="11"/>
       <c r="BV18" s="11"/>
       <c r="BW18" s="11"/>
-    </row>
-    <row r="19" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="BX18" s="11"/>
+      <c r="BY18" s="11"/>
+      <c r="BZ18" s="11"/>
+      <c r="CA18" s="11"/>
+      <c r="CB18" s="11"/>
+      <c r="CC18" s="11"/>
+      <c r="CD18" s="11"/>
+      <c r="CE18" s="11"/>
+      <c r="CF18" s="11"/>
+    </row>
+    <row r="19" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="11" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
@@ -2480,19 +2713,10 @@
       <c r="AE19" s="11"/>
       <c r="AF19" s="11"/>
       <c r="AG19" s="11"/>
-      <c r="AH19" s="11"/>
-      <c r="AI19" s="11"/>
-      <c r="AJ19" s="11"/>
-      <c r="AK19" s="11"/>
-      <c r="AL19" s="11"/>
-      <c r="AM19" s="11"/>
-      <c r="AN19" s="11"/>
-      <c r="AO19" s="11"/>
-      <c r="AP19" s="11"/>
-      <c r="AQ19" s="11"/>
-      <c r="AR19" s="11"/>
-      <c r="AS19" s="11"/>
-      <c r="AT19" s="11"/>
+      <c r="AQ19" s="16"/>
+      <c r="AR19" s="16"/>
+      <c r="AS19" s="16"/>
+      <c r="AT19" s="17"/>
       <c r="AU19" s="11"/>
       <c r="AV19" s="11"/>
       <c r="AW19" s="11"/>
@@ -2522,16 +2746,25 @@
       <c r="BU19" s="11"/>
       <c r="BV19" s="11"/>
       <c r="BW19" s="11"/>
-    </row>
-    <row r="20" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="BX19" s="11"/>
+      <c r="BY19" s="11"/>
+      <c r="BZ19" s="11"/>
+      <c r="CA19" s="11"/>
+      <c r="CB19" s="11"/>
+      <c r="CC19" s="11"/>
+      <c r="CD19" s="11"/>
+      <c r="CE19" s="11"/>
+      <c r="CF19" s="11"/>
+    </row>
+    <row r="20" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
@@ -2571,9 +2804,9 @@
       <c r="AO20" s="11"/>
       <c r="AP20" s="11"/>
       <c r="AQ20" s="11"/>
-      <c r="AR20" s="11"/>
-      <c r="AS20" s="11"/>
-      <c r="AT20" s="11"/>
+      <c r="AR20" s="16"/>
+      <c r="AS20" s="16"/>
+      <c r="AT20" s="16"/>
       <c r="AU20" s="11"/>
       <c r="AV20" s="11"/>
       <c r="AW20" s="11"/>
@@ -2603,16 +2836,25 @@
       <c r="BU20" s="11"/>
       <c r="BV20" s="11"/>
       <c r="BW20" s="11"/>
-    </row>
-    <row r="21" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="BX20" s="11"/>
+      <c r="BY20" s="11"/>
+      <c r="BZ20" s="11"/>
+      <c r="CA20" s="11"/>
+      <c r="CB20" s="11"/>
+      <c r="CC20" s="11"/>
+      <c r="CD20" s="11"/>
+      <c r="CE20" s="11"/>
+      <c r="CF20" s="11"/>
+    </row>
+    <row r="21" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
-      <c r="B21" t="s">
-        <v>45</v>
+      <c r="B21" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
@@ -2652,9 +2894,9 @@
       <c r="AO21" s="11"/>
       <c r="AP21" s="11"/>
       <c r="AQ21" s="11"/>
-      <c r="AR21" s="11"/>
-      <c r="AS21" s="11"/>
-      <c r="AT21" s="11"/>
+      <c r="AR21" s="16"/>
+      <c r="AS21" s="16"/>
+      <c r="AT21" s="16"/>
       <c r="AU21" s="11"/>
       <c r="AV21" s="11"/>
       <c r="AW21" s="11"/>
@@ -2684,16 +2926,25 @@
       <c r="BU21" s="11"/>
       <c r="BV21" s="11"/>
       <c r="BW21" s="11"/>
-    </row>
-    <row r="22" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="BX21" s="11"/>
+      <c r="BY21" s="11"/>
+      <c r="BZ21" s="11"/>
+      <c r="CA21" s="11"/>
+      <c r="CB21" s="11"/>
+      <c r="CC21" s="11"/>
+      <c r="CD21" s="11"/>
+      <c r="CE21" s="11"/>
+      <c r="CF21" s="11"/>
+    </row>
+    <row r="22" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
-      <c r="B22" s="11" t="s">
+      <c r="B22" t="s">
         <v>44</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
@@ -2723,24 +2974,24 @@
       <c r="AE22" s="11"/>
       <c r="AF22" s="11"/>
       <c r="AG22" s="11"/>
-      <c r="AH22" s="11"/>
-      <c r="AI22" s="11"/>
-      <c r="AJ22" s="11"/>
-      <c r="AK22" s="11"/>
-      <c r="AL22" s="11"/>
-      <c r="AM22" s="11"/>
-      <c r="AN22" s="11"/>
-      <c r="AO22" s="11"/>
-      <c r="AP22" s="11"/>
-      <c r="AQ22" s="11"/>
-      <c r="AR22" s="11"/>
-      <c r="AS22" s="11"/>
-      <c r="AT22" s="11"/>
-      <c r="AU22" s="11"/>
-      <c r="AV22" s="11"/>
-      <c r="AW22" s="11"/>
-      <c r="AX22" s="11"/>
-      <c r="AY22" s="11"/>
+      <c r="AH22" s="16"/>
+      <c r="AI22" s="16"/>
+      <c r="AJ22" s="16"/>
+      <c r="AK22" s="16"/>
+      <c r="AL22" s="16"/>
+      <c r="AM22" s="16"/>
+      <c r="AN22" s="16"/>
+      <c r="AO22" s="16"/>
+      <c r="AP22" s="16"/>
+      <c r="AQ22" s="16"/>
+      <c r="AR22" s="16"/>
+      <c r="AS22" s="16"/>
+      <c r="AT22" s="16"/>
+      <c r="AU22" s="16"/>
+      <c r="AV22" s="16"/>
+      <c r="AW22" s="16"/>
+      <c r="AX22" s="16"/>
+      <c r="AY22" s="16"/>
       <c r="AZ22" s="11"/>
       <c r="BA22" s="11"/>
       <c r="BB22" s="11"/>
@@ -2765,16 +3016,25 @@
       <c r="BU22" s="11"/>
       <c r="BV22" s="11"/>
       <c r="BW22" s="11"/>
-    </row>
-    <row r="23" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="BX22" s="11"/>
+      <c r="BY22" s="11"/>
+      <c r="BZ22" s="11"/>
+      <c r="CA22" s="11"/>
+      <c r="CB22" s="11"/>
+      <c r="CC22" s="11"/>
+      <c r="CD22" s="11"/>
+      <c r="CE22" s="11"/>
+      <c r="CF22" s="11"/>
+    </row>
+    <row r="23" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -2817,11 +3077,11 @@
       <c r="AR23" s="11"/>
       <c r="AS23" s="11"/>
       <c r="AT23" s="11"/>
-      <c r="AU23" s="11"/>
-      <c r="AV23" s="11"/>
-      <c r="AW23" s="11"/>
-      <c r="AX23" s="11"/>
-      <c r="AY23" s="11"/>
+      <c r="AU23" s="16"/>
+      <c r="AV23" s="16"/>
+      <c r="AW23" s="16"/>
+      <c r="AX23" s="16"/>
+      <c r="AY23" s="16"/>
       <c r="AZ23" s="11"/>
       <c r="BA23" s="11"/>
       <c r="BB23" s="11"/>
@@ -2846,16 +3106,25 @@
       <c r="BU23" s="11"/>
       <c r="BV23" s="11"/>
       <c r="BW23" s="11"/>
-    </row>
-    <row r="24" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="BX23" s="11"/>
+      <c r="BY23" s="11"/>
+      <c r="BZ23" s="11"/>
+      <c r="CA23" s="11"/>
+      <c r="CB23" s="11"/>
+      <c r="CC23" s="11"/>
+      <c r="CD23" s="11"/>
+      <c r="CE23" s="11"/>
+      <c r="CF23" s="11"/>
+    </row>
+    <row r="24" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
@@ -2902,9 +3171,9 @@
       <c r="AV24" s="11"/>
       <c r="AW24" s="11"/>
       <c r="AX24" s="11"/>
-      <c r="AY24" s="11"/>
-      <c r="AZ24" s="11"/>
-      <c r="BA24" s="11"/>
+      <c r="AY24" s="16"/>
+      <c r="AZ24" s="16"/>
+      <c r="BA24" s="16"/>
       <c r="BB24" s="11"/>
       <c r="BC24" s="11"/>
       <c r="BD24" s="11"/>
@@ -2927,16 +3196,25 @@
       <c r="BU24" s="11"/>
       <c r="BV24" s="11"/>
       <c r="BW24" s="11"/>
-    </row>
-    <row r="25" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="BX24" s="11"/>
+      <c r="BY24" s="11"/>
+      <c r="BZ24" s="11"/>
+      <c r="CA24" s="11"/>
+      <c r="CB24" s="11"/>
+      <c r="CC24" s="11"/>
+      <c r="CD24" s="11"/>
+      <c r="CE24" s="11"/>
+      <c r="CF24" s="11"/>
+    </row>
+    <row r="25" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
@@ -2984,9 +3262,9 @@
       <c r="AW25" s="11"/>
       <c r="AX25" s="11"/>
       <c r="AY25" s="11"/>
-      <c r="AZ25" s="11"/>
-      <c r="BA25" s="11"/>
-      <c r="BB25" s="11"/>
+      <c r="AZ25" s="16"/>
+      <c r="BA25" s="16"/>
+      <c r="BB25" s="16"/>
       <c r="BC25" s="11"/>
       <c r="BD25" s="11"/>
       <c r="BE25" s="11"/>
@@ -3008,16 +3286,25 @@
       <c r="BU25" s="11"/>
       <c r="BV25" s="11"/>
       <c r="BW25" s="11"/>
-    </row>
-    <row r="26" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="BX25" s="11"/>
+      <c r="BY25" s="11"/>
+      <c r="BZ25" s="11"/>
+      <c r="CA25" s="11"/>
+      <c r="CB25" s="11"/>
+      <c r="CC25" s="11"/>
+      <c r="CD25" s="11"/>
+      <c r="CE25" s="11"/>
+      <c r="CF25" s="11"/>
+    </row>
+    <row r="26" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
@@ -3066,9 +3353,9 @@
       <c r="AX26" s="11"/>
       <c r="AY26" s="11"/>
       <c r="AZ26" s="11"/>
-      <c r="BA26" s="11"/>
-      <c r="BB26" s="11"/>
-      <c r="BC26" s="11"/>
+      <c r="BA26" s="16"/>
+      <c r="BB26" s="16"/>
+      <c r="BC26" s="17"/>
       <c r="BD26" s="11"/>
       <c r="BE26" s="11"/>
       <c r="BF26" s="11"/>
@@ -3089,16 +3376,25 @@
       <c r="BU26" s="11"/>
       <c r="BV26" s="11"/>
       <c r="BW26" s="11"/>
-    </row>
-    <row r="27" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="BX26" s="11"/>
+      <c r="BY26" s="11"/>
+      <c r="BZ26" s="11"/>
+      <c r="CA26" s="11"/>
+      <c r="CB26" s="11"/>
+      <c r="CC26" s="11"/>
+      <c r="CD26" s="11"/>
+      <c r="CE26" s="11"/>
+      <c r="CF26" s="11"/>
+    </row>
+    <row r="27" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -3146,9 +3442,9 @@
       <c r="AW27" s="11"/>
       <c r="AX27" s="11"/>
       <c r="AY27" s="11"/>
-      <c r="AZ27" s="11"/>
-      <c r="BA27" s="11"/>
-      <c r="BB27" s="11"/>
+      <c r="AZ27" s="16"/>
+      <c r="BA27" s="16"/>
+      <c r="BB27" s="16"/>
       <c r="BC27" s="11"/>
       <c r="BD27" s="11"/>
       <c r="BE27" s="11"/>
@@ -3170,16 +3466,25 @@
       <c r="BU27" s="11"/>
       <c r="BV27" s="11"/>
       <c r="BW27" s="11"/>
-    </row>
-    <row r="28" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="BX27" s="11"/>
+      <c r="BY27" s="11"/>
+      <c r="BZ27" s="11"/>
+      <c r="CA27" s="11"/>
+      <c r="CB27" s="11"/>
+      <c r="CC27" s="11"/>
+      <c r="CD27" s="11"/>
+      <c r="CE27" s="11"/>
+      <c r="CF27" s="11"/>
+    </row>
+    <row r="28" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
@@ -3228,8 +3533,8 @@
       <c r="AX28" s="11"/>
       <c r="AY28" s="11"/>
       <c r="AZ28" s="11"/>
-      <c r="BA28" s="11"/>
-      <c r="BB28" s="11"/>
+      <c r="BA28" s="16"/>
+      <c r="BB28" s="16"/>
       <c r="BC28" s="11"/>
       <c r="BD28" s="11"/>
       <c r="BE28" s="11"/>
@@ -3251,13 +3556,26 @@
       <c r="BU28" s="11"/>
       <c r="BV28" s="11"/>
       <c r="BW28" s="11"/>
-    </row>
-    <row r="29" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="BX28" s="11"/>
+      <c r="BY28" s="11"/>
+      <c r="BZ28" s="11"/>
+      <c r="CA28" s="11"/>
+      <c r="CB28" s="11"/>
+      <c r="CC28" s="11"/>
+      <c r="CD28" s="11"/>
+      <c r="CE28" s="11"/>
+      <c r="CF28" s="11"/>
+    </row>
+    <row r="29" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
+      <c r="B29" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="18"/>
+      <c r="E29" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
@@ -3304,10 +3622,10 @@
       <c r="AW29" s="11"/>
       <c r="AX29" s="11"/>
       <c r="AY29" s="11"/>
-      <c r="AZ29" s="11"/>
-      <c r="BA29" s="11"/>
-      <c r="BB29" s="11"/>
-      <c r="BC29" s="11"/>
+      <c r="AZ29" s="16"/>
+      <c r="BA29" s="16"/>
+      <c r="BB29" s="16"/>
+      <c r="BC29" s="17"/>
       <c r="BD29" s="11"/>
       <c r="BE29" s="11"/>
       <c r="BF29" s="11"/>
@@ -3328,8 +3646,17 @@
       <c r="BU29" s="11"/>
       <c r="BV29" s="11"/>
       <c r="BW29" s="11"/>
-    </row>
-    <row r="30" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="BX29" s="11"/>
+      <c r="BY29" s="11"/>
+      <c r="BZ29" s="11"/>
+      <c r="CA29" s="11"/>
+      <c r="CB29" s="11"/>
+      <c r="CC29" s="11"/>
+      <c r="CD29" s="11"/>
+      <c r="CE29" s="11"/>
+      <c r="CF29" s="11"/>
+    </row>
+    <row r="30" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -3405,8 +3732,17 @@
       <c r="BU30" s="11"/>
       <c r="BV30" s="11"/>
       <c r="BW30" s="11"/>
-    </row>
-    <row r="31" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="BX30" s="11"/>
+      <c r="BY30" s="11"/>
+      <c r="BZ30" s="11"/>
+      <c r="CA30" s="11"/>
+      <c r="CB30" s="11"/>
+      <c r="CC30" s="11"/>
+      <c r="CD30" s="11"/>
+      <c r="CE30" s="11"/>
+      <c r="CF30" s="11"/>
+    </row>
+    <row r="31" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -3482,97 +3818,111 @@
       <c r="BU31" s="11"/>
       <c r="BV31" s="11"/>
       <c r="BW31" s="11"/>
-    </row>
-    <row r="32" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
-        <v>37</v>
-      </c>
+      <c r="BX31" s="11"/>
+      <c r="BY31" s="11"/>
+      <c r="BZ31" s="11"/>
+      <c r="CA31" s="11"/>
+      <c r="CB31" s="11"/>
+      <c r="CC31" s="11"/>
+      <c r="CD31" s="11"/>
+      <c r="CE31" s="11"/>
+      <c r="CF31" s="11"/>
+    </row>
+    <row r="32" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
-      <c r="E32" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="E32" s="18"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="20"/>
-      <c r="V32" s="20"/>
-      <c r="W32" s="20"/>
-      <c r="X32" s="20"/>
-      <c r="Y32" s="21"/>
-      <c r="Z32" s="21"/>
-      <c r="AA32" s="21"/>
-      <c r="AB32" s="21"/>
-      <c r="AC32" s="21"/>
-      <c r="AD32" s="21"/>
-      <c r="AE32" s="21"/>
-      <c r="AF32" s="21"/>
-      <c r="AG32" s="21"/>
-      <c r="AH32" s="21"/>
-      <c r="AI32" s="21"/>
-      <c r="AJ32" s="21"/>
-      <c r="AK32" s="21"/>
-      <c r="AL32" s="21"/>
-      <c r="AM32" s="21"/>
-      <c r="AN32" s="21"/>
-      <c r="AO32" s="21"/>
-      <c r="AP32" s="21"/>
-      <c r="AQ32" s="21"/>
-      <c r="AR32" s="21"/>
-      <c r="AS32" s="21"/>
-      <c r="AT32" s="21"/>
-      <c r="AU32" s="21"/>
-      <c r="AV32" s="21"/>
-      <c r="AW32" s="21"/>
-      <c r="AX32" s="21"/>
-      <c r="AY32" s="21"/>
-      <c r="AZ32" s="21"/>
-      <c r="BA32" s="21"/>
-      <c r="BB32" s="21"/>
-      <c r="BC32" s="21"/>
-      <c r="BD32" s="21"/>
-      <c r="BE32" s="21"/>
-      <c r="BF32" s="21"/>
-      <c r="BG32" s="21"/>
-      <c r="BH32" s="21"/>
-      <c r="BI32" s="21"/>
-      <c r="BJ32" s="21"/>
-      <c r="BK32" s="21"/>
-      <c r="BL32" s="21"/>
-      <c r="BM32" s="21"/>
-      <c r="BN32" s="21"/>
-      <c r="BO32" s="21"/>
-      <c r="BP32" s="21"/>
-      <c r="BQ32" s="21"/>
-      <c r="BR32" s="21"/>
-      <c r="BS32" s="21"/>
-      <c r="BT32" s="21"/>
-      <c r="BU32" s="17"/>
-      <c r="BV32" s="21"/>
-      <c r="BW32" s="21"/>
-    </row>
-    <row r="33" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11" t="s">
-        <v>39</v>
-      </c>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="11"/>
+      <c r="AD32" s="11"/>
+      <c r="AE32" s="11"/>
+      <c r="AF32" s="11"/>
+      <c r="AG32" s="11"/>
+      <c r="AH32" s="11"/>
+      <c r="AI32" s="11"/>
+      <c r="AJ32" s="11"/>
+      <c r="AK32" s="11"/>
+      <c r="AL32" s="11"/>
+      <c r="AM32" s="11"/>
+      <c r="AN32" s="11"/>
+      <c r="AO32" s="11"/>
+      <c r="AP32" s="11"/>
+      <c r="AQ32" s="11"/>
+      <c r="AR32" s="11"/>
+      <c r="AS32" s="11"/>
+      <c r="AT32" s="11"/>
+      <c r="AU32" s="11"/>
+      <c r="AV32" s="11"/>
+      <c r="AW32" s="11"/>
+      <c r="AX32" s="11"/>
+      <c r="AY32" s="11"/>
+      <c r="AZ32" s="11"/>
+      <c r="BA32" s="11"/>
+      <c r="BB32" s="11"/>
+      <c r="BC32" s="11"/>
+      <c r="BD32" s="11"/>
+      <c r="BE32" s="11"/>
+      <c r="BF32" s="11"/>
+      <c r="BG32" s="11"/>
+      <c r="BH32" s="11"/>
+      <c r="BI32" s="11"/>
+      <c r="BJ32" s="11"/>
+      <c r="BK32" s="11"/>
+      <c r="BL32" s="11"/>
+      <c r="BM32" s="11"/>
+      <c r="BN32" s="11"/>
+      <c r="BO32" s="11"/>
+      <c r="BP32" s="11"/>
+      <c r="BQ32" s="11"/>
+      <c r="BR32" s="11"/>
+      <c r="BS32" s="11"/>
+      <c r="BT32" s="11"/>
+      <c r="BU32" s="11"/>
+      <c r="BV32" s="11"/>
+      <c r="BW32" s="11"/>
+      <c r="BX32" s="11"/>
+      <c r="BY32" s="11"/>
+      <c r="BZ32" s="11"/>
+      <c r="CA32" s="11"/>
+      <c r="CB32" s="11"/>
+      <c r="CC32" s="11"/>
+      <c r="CD32" s="11"/>
+      <c r="CE32" s="11"/>
+      <c r="CF32" s="11"/>
+    </row>
+    <row r="33" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A33" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
       <c r="E33" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
@@ -3581,7 +3931,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
-      <c r="M33" s="16"/>
+      <c r="M33" s="11"/>
       <c r="N33" s="11"/>
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
@@ -3624,36 +3974,45 @@
       <c r="BA33" s="11"/>
       <c r="BB33" s="11"/>
       <c r="BC33" s="11"/>
-      <c r="BD33" s="11"/>
-      <c r="BE33" s="11"/>
-      <c r="BF33" s="11"/>
-      <c r="BG33" s="11"/>
-      <c r="BH33" s="11"/>
-      <c r="BI33" s="11"/>
-      <c r="BJ33" s="11"/>
-      <c r="BK33" s="11"/>
-      <c r="BL33" s="11"/>
-      <c r="BM33" s="11"/>
-      <c r="BN33" s="11"/>
-      <c r="BO33" s="11"/>
-      <c r="BP33" s="11"/>
-      <c r="BQ33" s="11"/>
-      <c r="BR33" s="11"/>
-      <c r="BS33" s="11"/>
-      <c r="BT33" s="11"/>
-      <c r="BU33" s="11"/>
-      <c r="BV33" s="11"/>
-      <c r="BW33" s="11"/>
-    </row>
-    <row r="34" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="BD33" s="21"/>
+      <c r="BE33" s="21"/>
+      <c r="BF33" s="21"/>
+      <c r="BG33" s="21"/>
+      <c r="BH33" s="21"/>
+      <c r="BI33" s="21"/>
+      <c r="BJ33" s="21"/>
+      <c r="BK33" s="21"/>
+      <c r="BL33" s="21"/>
+      <c r="BM33" s="21"/>
+      <c r="BN33" s="21"/>
+      <c r="BO33" s="21"/>
+      <c r="BP33" s="21"/>
+      <c r="BQ33" s="21"/>
+      <c r="BR33" s="21"/>
+      <c r="BS33" s="21"/>
+      <c r="BT33" s="21"/>
+      <c r="BU33" s="20"/>
+      <c r="BV33" s="20"/>
+      <c r="BW33" s="20"/>
+      <c r="BX33" s="20"/>
+      <c r="BY33" s="20"/>
+      <c r="BZ33" s="20"/>
+      <c r="CA33" s="20"/>
+      <c r="CB33" s="11"/>
+      <c r="CC33" s="11"/>
+      <c r="CD33" s="11"/>
+      <c r="CE33" s="11"/>
+      <c r="CF33" s="11"/>
+    </row>
+    <row r="34" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
@@ -3663,8 +4022,8 @@
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
       <c r="M34" s="11"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
       <c r="P34" s="11"/>
       <c r="Q34" s="11"/>
       <c r="R34" s="11"/>
@@ -3705,11 +4064,11 @@
       <c r="BA34" s="11"/>
       <c r="BB34" s="11"/>
       <c r="BC34" s="11"/>
-      <c r="BD34" s="11"/>
-      <c r="BE34" s="11"/>
-      <c r="BF34" s="11"/>
-      <c r="BG34" s="11"/>
-      <c r="BH34" s="11"/>
+      <c r="BD34" s="16"/>
+      <c r="BE34" s="16"/>
+      <c r="BF34" s="16"/>
+      <c r="BG34" s="16"/>
+      <c r="BH34" s="16"/>
       <c r="BI34" s="11"/>
       <c r="BJ34" s="11"/>
       <c r="BK34" s="11"/>
@@ -3725,16 +4084,25 @@
       <c r="BU34" s="11"/>
       <c r="BV34" s="11"/>
       <c r="BW34" s="11"/>
-    </row>
-    <row r="35" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="BX34" s="11"/>
+      <c r="BY34" s="11"/>
+      <c r="BZ34" s="11"/>
+      <c r="CA34" s="11"/>
+      <c r="CB34" s="11"/>
+      <c r="CC34" s="11"/>
+      <c r="CD34" s="11"/>
+      <c r="CE34" s="11"/>
+      <c r="CF34" s="11"/>
+    </row>
+    <row r="35" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
@@ -3748,7 +4116,7 @@
       <c r="O35" s="11"/>
       <c r="P35" s="11"/>
       <c r="Q35" s="11"/>
-      <c r="R35" s="16"/>
+      <c r="R35" s="11"/>
       <c r="S35" s="11"/>
       <c r="T35" s="11"/>
       <c r="U35" s="11"/>
@@ -3791,9 +4159,9 @@
       <c r="BF35" s="11"/>
       <c r="BG35" s="11"/>
       <c r="BH35" s="11"/>
-      <c r="BI35" s="11"/>
-      <c r="BJ35" s="11"/>
-      <c r="BK35" s="11"/>
+      <c r="BI35" s="16"/>
+      <c r="BJ35" s="16"/>
+      <c r="BK35" s="16"/>
       <c r="BL35" s="11"/>
       <c r="BM35" s="11"/>
       <c r="BN35" s="11"/>
@@ -3806,16 +4174,25 @@
       <c r="BU35" s="11"/>
       <c r="BV35" s="11"/>
       <c r="BW35" s="11"/>
-    </row>
-    <row r="36" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="BX35" s="11"/>
+      <c r="BY35" s="11"/>
+      <c r="BZ35" s="11"/>
+      <c r="CA35" s="11"/>
+      <c r="CB35" s="11"/>
+      <c r="CC35" s="11"/>
+      <c r="CD35" s="11"/>
+      <c r="CE35" s="11"/>
+      <c r="CF35" s="11"/>
+    </row>
+    <row r="36" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
       <c r="E36" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
@@ -3836,9 +4213,9 @@
       <c r="V36" s="11"/>
       <c r="W36" s="11"/>
       <c r="X36" s="11"/>
-      <c r="Y36" s="16"/>
-      <c r="Z36" s="16"/>
-      <c r="AA36" s="16"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="11"/>
       <c r="AB36" s="11"/>
       <c r="AC36" s="11"/>
       <c r="AD36" s="11"/>
@@ -3875,9 +4252,9 @@
       <c r="BI36" s="11"/>
       <c r="BJ36" s="11"/>
       <c r="BK36" s="11"/>
-      <c r="BL36" s="11"/>
-      <c r="BM36" s="11"/>
-      <c r="BN36" s="11"/>
+      <c r="BL36" s="16"/>
+      <c r="BM36" s="16"/>
+      <c r="BN36" s="16"/>
       <c r="BO36" s="11"/>
       <c r="BP36" s="11"/>
       <c r="BQ36" s="11"/>
@@ -3887,16 +4264,25 @@
       <c r="BU36" s="11"/>
       <c r="BV36" s="11"/>
       <c r="BW36" s="11"/>
-    </row>
-    <row r="37" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="BX36" s="11"/>
+      <c r="BY36" s="11"/>
+      <c r="BZ36" s="11"/>
+      <c r="CA36" s="11"/>
+      <c r="CB36" s="11"/>
+      <c r="CC36" s="11"/>
+      <c r="CD36" s="11"/>
+      <c r="CE36" s="11"/>
+      <c r="CF36" s="11"/>
+    </row>
+    <row r="37" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
@@ -3920,11 +4306,11 @@
       <c r="Y37" s="11"/>
       <c r="Z37" s="11"/>
       <c r="AA37" s="11"/>
-      <c r="AB37" s="16"/>
-      <c r="AC37" s="16"/>
-      <c r="AD37" s="16"/>
-      <c r="AE37" s="16"/>
-      <c r="AF37" s="16"/>
+      <c r="AB37" s="11"/>
+      <c r="AC37" s="11"/>
+      <c r="AD37" s="11"/>
+      <c r="AE37" s="11"/>
+      <c r="AF37" s="11"/>
       <c r="AG37" s="11"/>
       <c r="AH37" s="11"/>
       <c r="AI37" s="11"/>
@@ -3958,8 +4344,8 @@
       <c r="BK37" s="11"/>
       <c r="BL37" s="11"/>
       <c r="BM37" s="11"/>
-      <c r="BN37" s="11"/>
-      <c r="BO37" s="11"/>
+      <c r="BN37" s="16"/>
+      <c r="BO37" s="16"/>
       <c r="BP37" s="11"/>
       <c r="BQ37" s="11"/>
       <c r="BR37" s="11"/>
@@ -3968,16 +4354,25 @@
       <c r="BU37" s="11"/>
       <c r="BV37" s="11"/>
       <c r="BW37" s="11"/>
-    </row>
-    <row r="38" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="BX37" s="11"/>
+      <c r="BY37" s="11"/>
+      <c r="BZ37" s="11"/>
+      <c r="CA37" s="11"/>
+      <c r="CB37" s="11"/>
+      <c r="CC37" s="11"/>
+      <c r="CD37" s="11"/>
+      <c r="CE37" s="11"/>
+      <c r="CF37" s="11"/>
+    </row>
+    <row r="38" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="11" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
@@ -4005,9 +4400,9 @@
       <c r="AC38" s="11"/>
       <c r="AD38" s="11"/>
       <c r="AE38" s="11"/>
-      <c r="AF38" s="16"/>
-      <c r="AG38" s="16"/>
-      <c r="AH38" s="16"/>
+      <c r="AF38" s="11"/>
+      <c r="AG38" s="11"/>
+      <c r="AH38" s="11"/>
       <c r="AI38" s="11"/>
       <c r="AJ38" s="11"/>
       <c r="AK38" s="11"/>
@@ -4041,115 +4436,350 @@
       <c r="BM38" s="11"/>
       <c r="BN38" s="11"/>
       <c r="BO38" s="11"/>
-      <c r="BP38" s="11"/>
-      <c r="BQ38" s="11"/>
+      <c r="BP38" s="16"/>
+      <c r="BQ38" s="16"/>
       <c r="BR38" s="11"/>
       <c r="BS38" s="11"/>
       <c r="BT38" s="11"/>
       <c r="BU38" s="11"/>
       <c r="BV38" s="11"/>
       <c r="BW38" s="11"/>
-    </row>
-    <row r="39" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="BX38" s="11"/>
+      <c r="BY38" s="11"/>
+      <c r="BZ38" s="11"/>
+      <c r="CA38" s="11"/>
+      <c r="CB38" s="11"/>
+      <c r="CC38" s="11"/>
+      <c r="CD38" s="11"/>
+      <c r="CE38" s="11"/>
+      <c r="CF38" s="11"/>
+    </row>
+    <row r="39" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
       <c r="B39" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="11"/>
+      <c r="AA39" s="11"/>
+      <c r="AB39" s="11"/>
+      <c r="AC39" s="11"/>
+      <c r="AD39" s="11"/>
+      <c r="AE39" s="11"/>
+      <c r="AF39" s="11"/>
+      <c r="AG39" s="11"/>
+      <c r="AH39" s="11"/>
+      <c r="AI39" s="11"/>
+      <c r="AJ39" s="11"/>
+      <c r="AK39" s="11"/>
+      <c r="AL39" s="11"/>
+      <c r="AM39" s="11"/>
+      <c r="AN39" s="11"/>
+      <c r="AO39" s="11"/>
+      <c r="AP39" s="11"/>
+      <c r="AQ39" s="11"/>
+      <c r="AR39" s="11"/>
+      <c r="AS39" s="11"/>
+      <c r="AT39" s="11"/>
+      <c r="AU39" s="11"/>
+      <c r="AV39" s="11"/>
+      <c r="AW39" s="11"/>
+      <c r="AX39" s="11"/>
+      <c r="AY39" s="11"/>
+      <c r="AZ39" s="11"/>
+      <c r="BA39" s="11"/>
+      <c r="BB39" s="11"/>
+      <c r="BC39" s="11"/>
+      <c r="BD39" s="16"/>
+      <c r="BE39" s="16"/>
+      <c r="BF39" s="16"/>
+      <c r="BG39" s="11"/>
+      <c r="BH39" s="11"/>
+      <c r="BI39" s="11"/>
+      <c r="BJ39" s="11"/>
+      <c r="BK39" s="11"/>
+      <c r="BL39" s="11"/>
+      <c r="BM39" s="11"/>
+      <c r="BN39" s="11"/>
+      <c r="BO39" s="11"/>
+      <c r="BP39" s="11"/>
+      <c r="BQ39" s="11"/>
+      <c r="BR39" s="11"/>
+      <c r="BS39" s="11"/>
+      <c r="BT39" s="11"/>
+      <c r="BU39" s="11"/>
+      <c r="BV39" s="11"/>
+      <c r="BW39" s="11"/>
+      <c r="BX39" s="11"/>
+      <c r="BY39" s="11"/>
+      <c r="BZ39" s="11"/>
+      <c r="CA39" s="11"/>
+      <c r="CB39" s="11"/>
+      <c r="CC39" s="11"/>
+      <c r="CD39" s="11"/>
+      <c r="CE39" s="11"/>
+      <c r="CF39" s="11"/>
+    </row>
+    <row r="40" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="B40" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="11"/>
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="11"/>
+      <c r="AD40" s="11"/>
+      <c r="AE40" s="11"/>
+      <c r="AF40" s="11"/>
+      <c r="AG40" s="11"/>
+      <c r="AH40" s="11"/>
+      <c r="AI40" s="11"/>
+      <c r="AJ40" s="11"/>
+      <c r="BI40" s="16"/>
+      <c r="BJ40" s="16"/>
+    </row>
+    <row r="41" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="B41" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E39" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="B40" s="11" t="s">
+      <c r="E41" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="11"/>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="11"/>
+      <c r="AA41" s="11"/>
+      <c r="AB41" s="11"/>
+      <c r="AC41" s="11"/>
+      <c r="AD41" s="11"/>
+      <c r="AE41" s="11"/>
+      <c r="AF41" s="11"/>
+      <c r="AG41" s="11"/>
+      <c r="AH41" s="11"/>
+      <c r="AI41" s="11"/>
+      <c r="AJ41" s="11"/>
+      <c r="BF41" s="16"/>
+      <c r="BG41" s="16"/>
+      <c r="BH41" s="16"/>
+      <c r="BI41" s="16"/>
+    </row>
+    <row r="42" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="B42" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="B41" s="11" t="s">
+      <c r="E42" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="11"/>
+      <c r="X42" s="11"/>
+      <c r="Y42" s="11"/>
+      <c r="Z42" s="11"/>
+      <c r="AA42" s="11"/>
+      <c r="AB42" s="11"/>
+      <c r="AC42" s="11"/>
+      <c r="AD42" s="11"/>
+      <c r="AE42" s="11"/>
+      <c r="AF42" s="11"/>
+      <c r="AG42" s="11"/>
+      <c r="AH42" s="11"/>
+      <c r="AI42" s="11"/>
+      <c r="AJ42" s="11"/>
+      <c r="BK42" s="16"/>
+      <c r="BL42" s="16"/>
+      <c r="BM42" s="16"/>
+    </row>
+    <row r="43" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="B43" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E41" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="B42" s="11" t="s">
+      <c r="E43" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="BN43" s="16"/>
+      <c r="BO43" s="16"/>
+      <c r="BP43" s="16"/>
+      <c r="BQ43" s="16"/>
+    </row>
+    <row r="44" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="B44" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E42" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="B43" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E43" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A45" s="23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>50</v>
-      </c>
-      <c r="E46" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="E44" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="BR44" s="16"/>
+      <c r="BS44" s="16"/>
+      <c r="BT44" s="16"/>
+    </row>
+    <row r="46" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A46" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:84" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="1:75" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="CB47" s="16"/>
+      <c r="CC47" s="16"/>
+      <c r="CD47" s="16"/>
+      <c r="CE47" s="16"/>
+    </row>
+    <row r="48" spans="1:84" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>51</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="AS48" s="16"/>
+      <c r="AT48" s="16"/>
+      <c r="AU48" s="16"/>
+      <c r="AV48" s="16"/>
+      <c r="AW48" s="16"/>
+      <c r="AX48" s="16"/>
+      <c r="AY48" s="16"/>
+      <c r="AZ48" s="16"/>
+      <c r="BA48" s="16"/>
+      <c r="BB48" s="16"/>
+      <c r="BC48" s="16"/>
+      <c r="BD48" s="16"/>
+      <c r="BE48" s="16"/>
+      <c r="BF48" s="16"/>
+      <c r="BG48" s="16"/>
+      <c r="BH48" s="16"/>
+      <c r="BI48" s="16"/>
+      <c r="BJ48" s="16"/>
+      <c r="BK48" s="16"/>
+      <c r="BL48" s="16"/>
+      <c r="BM48" s="16"/>
+      <c r="BN48" s="16"/>
+      <c r="BO48" s="16"/>
+      <c r="BP48" s="16"/>
+      <c r="BQ48" s="16"/>
+      <c r="BR48" s="16"/>
+      <c r="BS48" s="16"/>
+      <c r="BT48" s="16"/>
+      <c r="BU48" s="16"/>
+      <c r="BV48" s="16"/>
+      <c r="BW48" s="16"/>
+      <c r="BX48" s="16"/>
+      <c r="BY48" s="16"/>
+      <c r="BZ48" s="16"/>
+      <c r="CA48" s="16"/>
+      <c r="CB48" s="16"/>
+      <c r="CC48" s="16"/>
+    </row>
+    <row r="49" spans="2:84" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="CD49" s="16"/>
+      <c r="CE49" s="16"/>
+    </row>
+    <row r="50" spans="2:84" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>53</v>
       </c>
-      <c r="E49" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+      <c r="E50" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="CE50" s="16"/>
+    </row>
+    <row r="51" spans="2:84" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
         <v>54</v>
       </c>
-      <c r="E50" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+      <c r="E51" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="CE51" s="16"/>
+    </row>
+    <row r="52" spans="2:84" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="CE52" s="16"/>
+      <c r="CF52" s="16"/>
+    </row>
+    <row r="53" spans="2:84" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>55</v>
       </c>
-      <c r="E51" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>56</v>
-      </c>
-      <c r="E52" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="E53" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="CF53" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
